--- a/bio_diversity/static/report_templates/mortality_report_template.xlsx
+++ b/bio_diversity/static/report_templates/mortality_report_template.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Individuals" sheetId="3" r:id="rId1"/>
-    <sheet name="Groups" sheetId="4" r:id="rId2"/>
-    <sheet name="Tanks" sheetId="5" r:id="rId3"/>
+    <sheet name="Samples" sheetId="7" r:id="rId2"/>
+    <sheet name="Groups" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Collection</t>
   </si>
@@ -38,15 +38,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Last Detail Date</t>
-  </si>
-  <si>
-    <t>Last Detail Event</t>
-  </si>
-  <si>
-    <t>Active Detail Counts</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
@@ -66,6 +57,9 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>Sample Number</t>
   </si>
 </sst>
 </file>
@@ -969,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
@@ -978,25 +972,25 @@
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1001,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,13 +1076,13 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -1035,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>3</v>
@@ -1044,52 +1100,16 @@
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/report_templates/mortality_report_template.xlsx
+++ b/bio_diversity/static/report_templates/mortality_report_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Individuals" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Collection</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Sample Number</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -918,7 +921,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,11 +932,11 @@
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -992,6 +995,9 @@
       <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="L2" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1001,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K2"/>
+  <dimension ref="A2:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,9 +1024,10 @@
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1053,6 +1060,9 @@
       </c>
       <c r="K2" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1063,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J2"/>
+  <dimension ref="A2:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,9 +1088,11 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1110,6 +1122,9 @@
       </c>
       <c r="J2" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
